--- a/plans.xlsx
+++ b/plans.xlsx
@@ -518,7 +518,7 @@
         <v>45637</v>
       </c>
       <c r="B10" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
